--- a/modelbased_prediction/Opdracht1.4.xlsx
+++ b/modelbased_prediction/Opdracht1.4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\school\Hu\Leerjaar 3\AS\inlever opdracht 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Dropbox\school\Hu\Leerjaar 3\AS\inlever opdracht 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E980120-61B8-4FAF-B25A-D43FC1F3AADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BE82A9-6408-455C-8586-A9A820AEF63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <t>S2 meer waard dan S1</t>
   </si>
   <si>
-    <t>Conclusie; Ik stop met rekenen na de 8ste iteratie omdat dan het patroon stopt en de waardens optimaal zijn</t>
+    <t>Conclusie; Ik stop met rekenen na de 12de iteratie omdat dan het patroon stopt en de waardens optimaal zijn</t>
   </si>
 </sst>
 </file>
@@ -109,7 +109,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -503,15 +503,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B6:R20"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B6:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="2:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
         <v>0</v>
@@ -545,8 +548,12 @@
       <c r="R6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,8 +586,12 @@
         <f>N7&lt;O7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -602,12 +613,12 @@
         <v>2</v>
       </c>
       <c r="N8" s="1">
-        <f>1*(-0.1+J6*O7)</f>
+        <f>1*(-0.1+1*O7)</f>
         <v>-0.1</v>
       </c>
       <c r="O8" s="1">
-        <f>(0.5*(-0.1+J6*N7)+0.5*(-1+J6*P7))</f>
-        <v>-0.55000000000000004</v>
+        <f>MAX((-0.1+1*N7),(-1+1*P7))</f>
+        <v>-0.1</v>
       </c>
       <c r="P8" s="1">
         <v>0</v>
@@ -616,8 +627,12 @@
         <f>N8&lt;O8</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
@@ -635,47 +650,55 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="M9" s="1">
-        <f t="shared" ref="M9:M16" si="0">M8+1</f>
+        <f t="shared" ref="M9:M20" si="0">M8+1</f>
         <v>3</v>
       </c>
       <c r="N9" s="1">
-        <f>1*(-0.1+J6*O8)</f>
-        <v>-0.65</v>
+        <f>1*(-0.1+1*O8)</f>
+        <v>-0.2</v>
       </c>
       <c r="O9" s="1">
-        <f>(0.5*(-0.1+J6*N8)+0.5*(-1+J6*P8))</f>
-        <v>-0.6</v>
+        <f>MAX((-0.1+1*N8),(-1+1*P8))</f>
+        <v>-0.2</v>
       </c>
       <c r="P9" s="1">
         <v>0</v>
       </c>
       <c r="R9" t="b">
         <f>N9&lt;O9</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M10" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="N10" s="1">
-        <f>1*(-0.1+J6*O9)</f>
-        <v>-0.7</v>
+        <f t="shared" ref="N10:N20" si="1">1*(-0.1+1*O9)</f>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="O10" s="1">
-        <f>(0.5*(-0.1+J6*N9)+0.5*(-1+J6*P9))</f>
-        <v>-0.875</v>
+        <f t="shared" ref="O10:O20" si="2">MAX((-0.1+1*N9),(-1+1*P9))</f>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="P10" s="1">
         <v>0</v>
       </c>
       <c r="R10" t="b">
-        <f t="shared" ref="R10:R20" si="1">N10&lt;O10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R10:R20" si="3">N10&lt;O10</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
@@ -684,209 +707,249 @@
         <v>5</v>
       </c>
       <c r="N11" s="1">
-        <f>1*(-0.1+1*O10)</f>
-        <v>-0.97499999999999998</v>
+        <f t="shared" si="1"/>
+        <v>-0.4</v>
       </c>
       <c r="O11" s="1">
-        <f>(0.5*(-0.1+1*N10)+0.5*(-1+1*P10))</f>
+        <f t="shared" si="2"/>
+        <v>-0.4</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.6</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.6</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.7</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.7</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.79999999999999993</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.79999999999999993</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="2:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="1"/>
         <v>-0.89999999999999991</v>
       </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" t="b">
+      <c r="O16" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.89999999999999991</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="13:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N17" s="1">
         <f t="shared" si="1"/>
+        <v>-0.99999999999999989</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.99999999999999989</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="13:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.0999999999999999</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" t="b">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M12" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" ref="N12:N20" si="2">1*(-0.1+1*O11)</f>
-        <v>-0.99999999999999989</v>
-      </c>
-      <c r="O12" s="1">
-        <f t="shared" ref="O12:O20" si="3">(0.5*(-0.1+1*N11)+0.5*(-1+1*P11))</f>
-        <v>-1.0375000000000001</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" t="b">
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="13:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N19" s="1">
+        <f>1*(-0.1+1*O18)</f>
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="13:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="N20" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M13" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N13" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="O20" s="1">
         <f t="shared" si="2"/>
-        <v>-1.1375000000000002</v>
-      </c>
-      <c r="O13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" t="b">
         <f t="shared" si="3"/>
-        <v>-1.0499999999999998</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" t="b">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="2:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M14" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.1499999999999999</v>
-      </c>
-      <c r="O14" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.1187500000000001</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M15" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.2187500000000002</v>
-      </c>
-      <c r="O15" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.125</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M16" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.2250000000000001</v>
-      </c>
-      <c r="O16" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.1593750000000003</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="13:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M17" s="1">
-        <f t="shared" ref="M17:M20" si="4">M16+1</f>
-        <v>11</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.2593750000000004</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.1625000000000001</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="13:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M18" s="1">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.2625000000000002</v>
-      </c>
-      <c r="O18" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.1796875000000002</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="13:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M19" s="1">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.2796875000000003</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.1812500000000001</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="13:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M20" s="1">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="2"/>
-        <v>-1.2812500000000002</v>
-      </c>
-      <c r="O20" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.1898437500000001</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="R7:R20">
@@ -895,6 +958,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>